--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p9_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p9_data.xlsx
@@ -3551,6 +3551,9 @@
       <c r="A122">
         <v>9</v>
       </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
       <c r="C122">
         <v>0</v>
       </c>
@@ -3558,6 +3561,15 @@
         <v>1</v>
       </c>
       <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
         <v>1</v>
       </c>
     </row>
@@ -3565,6 +3577,9 @@
       <c r="A123">
         <v>9</v>
       </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
       <c r="C123">
         <v>-15</v>
       </c>
@@ -3572,6 +3587,15 @@
         <v>0.1</v>
       </c>
       <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>-1</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
         <v>0</v>
       </c>
     </row>
@@ -3579,6 +3603,9 @@
       <c r="A124">
         <v>9</v>
       </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
       <c r="C124">
         <v>0</v>
       </c>
@@ -3586,6 +3613,15 @@
         <v>2</v>
       </c>
       <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
         <v>1</v>
       </c>
     </row>
@@ -3593,6 +3629,9 @@
       <c r="A125">
         <v>9</v>
       </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
       <c r="C125">
         <v>0</v>
       </c>
@@ -3600,6 +3639,15 @@
         <v>1</v>
       </c>
       <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
         <v>0</v>
       </c>
     </row>
@@ -3607,6 +3655,9 @@
       <c r="A126">
         <v>9</v>
       </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
       <c r="C126">
         <v>-15</v>
       </c>
@@ -3614,6 +3665,15 @@
         <v>2</v>
       </c>
       <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>-1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
         <v>1</v>
       </c>
     </row>
@@ -3621,6 +3681,9 @@
       <c r="A127">
         <v>9</v>
       </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
       <c r="C127">
         <v>0</v>
       </c>
@@ -3628,6 +3691,15 @@
         <v>1</v>
       </c>
       <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
         <v>0</v>
       </c>
     </row>
@@ -3635,6 +3707,9 @@
       <c r="A128">
         <v>9</v>
       </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
       <c r="C128">
         <v>9</v>
       </c>
@@ -3644,11 +3719,23 @@
       <c r="E128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>9</v>
       </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
       <c r="C129">
         <v>0</v>
       </c>
@@ -3658,11 +3745,23 @@
       <c r="E129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>9</v>
       </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
       <c r="C130">
         <v>9</v>
       </c>
@@ -3672,11 +3771,23 @@
       <c r="E130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>9</v>
       </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
       <c r="C131">
         <v>-15</v>
       </c>
@@ -3686,11 +3797,23 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>-1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>9</v>
       </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
       <c r="C132">
         <v>9</v>
       </c>
@@ -3700,11 +3823,23 @@
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>9</v>
       </c>
+      <c r="B133">
+        <v>132</v>
+      </c>
       <c r="C133">
         <v>0</v>
       </c>
@@ -3714,11 +3849,23 @@
       <c r="E133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>9</v>
       </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
       <c r="C134">
         <v>9</v>
       </c>
@@ -3728,11 +3875,23 @@
       <c r="E134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>9</v>
       </c>
+      <c r="B135">
+        <v>134</v>
+      </c>
       <c r="C135">
         <v>0</v>
       </c>
@@ -3742,11 +3901,23 @@
       <c r="E135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>9</v>
       </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
       <c r="C136">
         <v>-15</v>
       </c>
@@ -3756,11 +3927,23 @@
       <c r="E136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>-1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>9</v>
       </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
       <c r="C137">
         <v>-15</v>
       </c>
@@ -3770,11 +3953,23 @@
       <c r="E137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>-1</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>9</v>
       </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
       <c r="C138">
         <v>-15</v>
       </c>
@@ -3784,11 +3979,23 @@
       <c r="E138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>-1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>9</v>
       </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
       <c r="C139">
         <v>-15</v>
       </c>
@@ -3798,11 +4005,23 @@
       <c r="E139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>-1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>9</v>
       </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
       <c r="C140">
         <v>-15</v>
       </c>
@@ -3812,11 +4031,23 @@
       <c r="E140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>-1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>9</v>
       </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
       <c r="C141">
         <v>9</v>
       </c>
@@ -3826,11 +4057,23 @@
       <c r="E141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>9</v>
       </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
       <c r="C142">
         <v>9</v>
       </c>
@@ -3840,11 +4083,23 @@
       <c r="E142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>9</v>
       </c>
+      <c r="B143">
+        <v>142</v>
+      </c>
       <c r="C143">
         <v>9</v>
       </c>
@@ -3854,11 +4109,23 @@
       <c r="E143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>9</v>
       </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
       <c r="C144">
         <v>-15</v>
       </c>
@@ -3868,11 +4135,23 @@
       <c r="E144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>-1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>9</v>
       </c>
+      <c r="B145">
+        <v>144</v>
+      </c>
       <c r="C145">
         <v>9</v>
       </c>
@@ -3882,11 +4161,23 @@
       <c r="E145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>9</v>
       </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
       <c r="C146">
         <v>-15</v>
       </c>
@@ -3896,11 +4187,23 @@
       <c r="E146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>9</v>
       </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
       <c r="C147">
         <v>0</v>
       </c>
@@ -3910,11 +4213,23 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>9</v>
       </c>
+      <c r="B148">
+        <v>147</v>
+      </c>
       <c r="C148">
         <v>0</v>
       </c>
@@ -3924,11 +4239,23 @@
       <c r="E148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>9</v>
       </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
       <c r="C149">
         <v>0</v>
       </c>
@@ -3938,11 +4265,23 @@
       <c r="E149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>9</v>
       </c>
+      <c r="B150">
+        <v>149</v>
+      </c>
       <c r="C150">
         <v>0</v>
       </c>
@@ -3952,11 +4291,23 @@
       <c r="E150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>9</v>
       </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
       <c r="C151">
         <v>0</v>
       </c>
@@ -3966,11 +4317,23 @@
       <c r="E151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>9</v>
       </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
       <c r="C152">
         <v>9</v>
       </c>
@@ -3980,11 +4343,23 @@
       <c r="E152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>9</v>
       </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
       <c r="C153">
         <v>9</v>
       </c>
@@ -3994,11 +4369,23 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>9</v>
       </c>
+      <c r="B154">
+        <v>153</v>
+      </c>
       <c r="C154">
         <v>0</v>
       </c>
@@ -4008,11 +4395,23 @@
       <c r="E154">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>9</v>
       </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
       <c r="C155">
         <v>0</v>
       </c>
@@ -4022,11 +4421,23 @@
       <c r="E155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>9</v>
       </c>
+      <c r="B156">
+        <v>155</v>
+      </c>
       <c r="C156">
         <v>0</v>
       </c>
@@ -4036,11 +4447,23 @@
       <c r="E156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>9</v>
       </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
       <c r="C157">
         <v>9</v>
       </c>
@@ -4050,11 +4473,23 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>9</v>
       </c>
+      <c r="B158">
+        <v>157</v>
+      </c>
       <c r="C158">
         <v>-15</v>
       </c>
@@ -4064,11 +4499,23 @@
       <c r="E158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>-1</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>9</v>
       </c>
+      <c r="B159">
+        <v>158</v>
+      </c>
       <c r="C159">
         <v>-15</v>
       </c>
@@ -4078,11 +4525,23 @@
       <c r="E159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>-1</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>9</v>
       </c>
+      <c r="B160">
+        <v>159</v>
+      </c>
       <c r="C160">
         <v>0</v>
       </c>
@@ -4092,11 +4551,23 @@
       <c r="E160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>9</v>
       </c>
+      <c r="B161">
+        <v>160</v>
+      </c>
       <c r="C161">
         <v>9</v>
       </c>
@@ -4106,11 +4577,23 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>9</v>
       </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
       <c r="C162">
         <v>0</v>
       </c>
@@ -4120,11 +4603,23 @@
       <c r="E162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>9</v>
       </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
       <c r="C163">
         <v>9</v>
       </c>
@@ -4134,11 +4629,23 @@
       <c r="E163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>9</v>
       </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
       <c r="C164">
         <v>9</v>
       </c>
@@ -4148,11 +4655,23 @@
       <c r="E164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>9</v>
       </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
       <c r="C165">
         <v>9</v>
       </c>
@@ -4162,11 +4681,23 @@
       <c r="E165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>9</v>
       </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
       <c r="C166">
         <v>0</v>
       </c>
@@ -4176,11 +4707,23 @@
       <c r="E166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>9</v>
       </c>
+      <c r="B167">
+        <v>166</v>
+      </c>
       <c r="C167">
         <v>0</v>
       </c>
@@ -4190,11 +4733,23 @@
       <c r="E167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>9</v>
       </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
       <c r="C168">
         <v>0</v>
       </c>
@@ -4204,11 +4759,23 @@
       <c r="E168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>9</v>
       </c>
+      <c r="B169">
+        <v>168</v>
+      </c>
       <c r="C169">
         <v>0</v>
       </c>
@@ -4218,11 +4785,23 @@
       <c r="E169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>9</v>
       </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
       <c r="C170">
         <v>0</v>
       </c>
@@ -4232,11 +4811,23 @@
       <c r="E170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>9</v>
       </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
       <c r="C171">
         <v>9</v>
       </c>
@@ -4246,11 +4837,23 @@
       <c r="E171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>9</v>
       </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
       <c r="C172">
         <v>-15</v>
       </c>
@@ -4260,11 +4863,23 @@
       <c r="E172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>-1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>9</v>
       </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
       <c r="C173">
         <v>9</v>
       </c>
@@ -4274,11 +4889,23 @@
       <c r="E173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>9</v>
       </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
       <c r="C174">
         <v>-15</v>
       </c>
@@ -4288,11 +4915,23 @@
       <c r="E174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>9</v>
       </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
       <c r="C175">
         <v>9</v>
       </c>
@@ -4302,11 +4941,23 @@
       <c r="E175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>9</v>
       </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
       <c r="C176">
         <v>9</v>
       </c>
@@ -4316,11 +4967,23 @@
       <c r="E176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>9</v>
       </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
       <c r="C177">
         <v>9</v>
       </c>
@@ -4330,11 +4993,23 @@
       <c r="E177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>9</v>
       </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
       <c r="C178">
         <v>0</v>
       </c>
@@ -4344,11 +5019,23 @@
       <c r="E178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>9</v>
       </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
       <c r="C179">
         <v>0</v>
       </c>
@@ -4358,11 +5045,23 @@
       <c r="E179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>9</v>
       </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
       <c r="C180">
         <v>0</v>
       </c>
@@ -4372,11 +5071,23 @@
       <c r="E180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>9</v>
       </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
       <c r="C181">
         <v>0</v>
       </c>
@@ -4384,6 +5095,15 @@
         <v>0.1</v>
       </c>
       <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p9_data.xlsx
+++ b/Assets/Studies/CHI26_Study3_Motion/data_processing/data/p9_data.xlsx
@@ -577,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
         <v>0</v>
